--- a/biology/Botanique/Cymbidium_suave/Cymbidium_suave.xlsx
+++ b/biology/Botanique/Cymbidium_suave/Cymbidium_suave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cymbidium suave est une espèce d'orchidées épiphytes originaire d'Australie.
 C'est l'un des trois espèces épiphytes de Cymbidium qui poussent en Australie. Les fleurs sont semblables à celle de l'espèce Cymbidium madidum, cependant, Cymbidium suave peut en être facilement distingué par l'absence de pseudobulbes qui sont communs au genre. Les deux autres espèces également originaires d'Australie comprennent Cymbidium canaliculatum et Cymbidium madidum précité.
